--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drunk99/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drunk99/PycharmProjects/myChatbot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CB59C9-3BBD-E24D-BCF4-61E4B97CD411}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73614865-01A4-764D-83C1-D1609EFD0F15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>question</t>
   </si>
@@ -154,6 +154,38 @@
   </si>
   <si>
     <t>Bunny才刚出生没多久哦~</t>
+  </si>
+  <si>
+    <t>电子科技大学在哪里？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子科技大学（University of Electronic Science and Technology of China）位于四川省成都市。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子科技大学又简称成电、电子科大、UESTC。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子科技大学的简称有哪些？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子科技大学有哪些校区？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子科技大学有清水河校区、沙河小区以及九里堤校区。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子科技大学的知名校友有哪些？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子科技大学知名校友有丁磊、万明坚、刘永言、刘盛纲、孙亚芳、贾廷安、李言荣、周炳琨、李小文、张冬辰、任宇昕等。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -525,15 +557,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="52.33203125" customWidth="1"/>
     <col min="2" max="2" width="80.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -713,6 +745,38 @@
         <v>43</v>
       </c>
     </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
